--- a/PhpUpgrade.xlsx
+++ b/PhpUpgrade.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="SP-Sales" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="4" r:id="rId2"/>
+    <sheet name="Certificate" sheetId="5" r:id="rId2"/>
+    <sheet name="Summary" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="362">
   <si>
     <t>Created By:-</t>
   </si>
@@ -119,14 +120,6 @@
     <t xml:space="preserve">Dealer should be able to get navigate to the pop up having  Radio buttons and buttons as per the  specifications and Should  ask for creating New or Renew Policy Option with validation msg "Do you want to Create New and Renew policy?"                           </t>
   </si>
   <si>
-    <t xml:space="preserve">The pup-up  should be having the following Radio Buttons  and buttons displayed -
-1)new(radio button)
-2)Renew(radio button)
-3)Proceed (Button)
-4)Close(Button)
-</t>
-  </si>
-  <si>
     <t>To verify  the POP UP page</t>
   </si>
   <si>
@@ -1385,9 +1378,6 @@
   </si>
   <si>
     <t>TC_SP-Sales_51</t>
-  </si>
-  <si>
-    <t>To verify if the User is able to create new Agreement by leaving OEM BRAND  field blank and enter valid details in the remaining fields.</t>
   </si>
   <si>
     <r>
@@ -1862,9 +1852,6 @@
     <t>To verify if the status for the  Agreement - BSP206560  has been changed from the dealer side</t>
   </si>
   <si>
-    <t>Dealer is logged and on agreement page</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Status for the Agreement - BSP206560  should </t>
     </r>
@@ -1982,10 +1969,567 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Lead Dev: Alok Srivastava/Vaishali</t>
-  </si>
-  <si>
     <t>Bosch</t>
+  </si>
+  <si>
+    <t>To verify by entering odometer reading field</t>
+  </si>
+  <si>
+    <t>1)Enter odometer reading 
+  2)Enter valid details in the remianing fields.             3)Click On Save Button.</t>
+  </si>
+  <si>
+    <t>Odometer reading=2993943944949</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To verify if the Field Name  changed from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Renew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Renew Service Package </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Field Name should changed from Renew to Renew Service Package  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pup-up  should be having the following Radio Buttons  and buttons displayed -
+1)new(radio button)
+2)Renew service package(radio button)
+3)Proceed (Button)
+4)Close(Button)
+</t>
+  </si>
+  <si>
+    <r>
+      <t>To verify  the POP UP page by selecting the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> New</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To verify if the User is able to create new Agreement by leaving </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OEM BRAND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  field blank and enter valid details in the remaining fields.</t>
+    </r>
+  </si>
+  <si>
+    <t>To verify if the model's lists are appearing against the OEM brand that User is selected</t>
+  </si>
+  <si>
+    <t>checking the madels against oem brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Select OEM Brand
+2)check the list of models from  model fields </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEM Brand- Maruti
+</t>
+  </si>
+  <si>
+    <t>list of models should appear in the dropdown list of model name field</t>
+  </si>
+  <si>
+    <t>Fuel type is appearing correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on SP-Sales module and select OEM brand and model
+and click the dropdown of fuel type </t>
+  </si>
+  <si>
+    <t>To verify by the valid data in odometer reading</t>
+  </si>
+  <si>
+    <t>Odometer reading=20000</t>
+  </si>
+  <si>
+    <t>Odometer reading should not accept,  Odometer reading should be restricted to 6 digits</t>
+  </si>
+  <si>
+    <r>
+      <t>should accept the data and Also Pop up should appear once entered the odometer reading-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ensure correct odometer reading is entered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with ok and cancel button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dealer is logged and on agreement page again</t>
+  </si>
+  <si>
+    <t>To verify if the dealer is able to generate the certificate</t>
+  </si>
+  <si>
+    <t>URL-http://13.126.69.89/bosch/index.php?module=Users&amp;view=PreferenceDetail&amp;record=1342
+User name-TVS-HO
+pwd-Welcome@1234567</t>
+  </si>
+  <si>
+    <t>Click on Generate Agreement Certificate  link</t>
+  </si>
+  <si>
+    <t>Dealer should be able to download the certificate</t>
+  </si>
+  <si>
+    <t>TC_SP-Sales_63</t>
+  </si>
+  <si>
+    <t>TC_SP-Sales_64</t>
+  </si>
+  <si>
+    <t>TC_SP-Sales_65</t>
+  </si>
+  <si>
+    <t>TC_SP-Sales_66</t>
+  </si>
+  <si>
+    <t>TC_SP-Sales_67</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Review By</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>SP-Sales(Generate Certificate)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to verify if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generate Agreement Certificate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is available on agreement page </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the file should be accessible or not while downloading from the storage location.</t>
+  </si>
+  <si>
+    <t>To Verify if Dealer is able to generate correct Certificate</t>
+  </si>
+  <si>
+    <t>Dealer is on selected  agreement page</t>
+  </si>
+  <si>
+    <t>Service Package Number
+-BSP207107</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to verify certificate if  certificate Dowloaded as per the Requirement by selecting the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Service Package Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to verify certificate if  certificate Dowloaded as per the Requirement by selecting the  Service Package Number with plan type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAX Care Plus</t>
+    </r>
+  </si>
+  <si>
+    <t>Certifate should be as per the requirement</t>
+  </si>
+  <si>
+    <r>
+      <t>Login with dealer who's role is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bosch Outlet</t>
+    </r>
+  </si>
+  <si>
+    <t>1.User name-
+bhavya-123
+2.pwd-Welcome@1234</t>
+  </si>
+  <si>
+    <t>Dealershould be able to generate his/her certicate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Generate Agreement Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> link should be available </t>
+    </r>
+  </si>
+  <si>
+    <t>Certifate should be downloaded in pdf file</t>
+  </si>
+  <si>
+    <t>Pdf should be accessible</t>
+  </si>
+  <si>
+    <t>Certicate is as per Requirement</t>
+  </si>
+  <si>
+    <t>Certificate generated</t>
+  </si>
+  <si>
+    <t>logo for the certifcate should be same as per the requirement</t>
+  </si>
+  <si>
+    <t>To verfiy the logo for the generated cerifticate</t>
+  </si>
+  <si>
+    <t>To verfiy the downloaded certificate</t>
+  </si>
+  <si>
+    <t>All the details for downloaded cetifcate should similar for selected Service Package number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify Bosch MaxCare+ Program Details with the Service Package </t>
+  </si>
+  <si>
+    <t>To verify if the Service Package Information for the selected service package number</t>
+  </si>
+  <si>
+    <t>SP Plan Start Date:16-Dec-2020 SP Plan End Date:15-Dec-2024
+SP Start KM:20000 SP End KM:60000</t>
+  </si>
+  <si>
+    <t>All the details should be matches the selected Service Package service number</t>
+  </si>
+  <si>
+    <t>observing the details for the selected service package number-BSP207107</t>
+  </si>
+  <si>
+    <t>To verfiy the price information of the downloaded certificate</t>
+  </si>
+  <si>
+    <t>Viewing  price info for the selected service package number-BSP207107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price inforamtion for the selected agreement should be same </t>
+  </si>
+  <si>
+    <t>To verfiy the Service Schedule for the selected plan type</t>
+  </si>
+  <si>
+    <t>Service Schedule should be same as per requiremnt</t>
+  </si>
+  <si>
+    <t>1.User name-
+Service.Advisor3
+2.pwd-Welcome@1234</t>
+  </si>
+  <si>
+    <r>
+      <t>Login with dealer who's role is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bosch Franchise Dealer</t>
+    </r>
+  </si>
+  <si>
+    <t>Dealer should be able to generate his/her certicate</t>
+  </si>
+  <si>
+    <t>Service Package Number
+-BSP207106</t>
+  </si>
+  <si>
+    <t>observing the details for the selected service package number-BSP207106</t>
+  </si>
+  <si>
+    <t>Viewing  price info for the selected service package number-BSP207106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP Plan Start Date:15-Dec-2020 SP Plan End Date:14-Dec-2023
+SP Start KM:30000 SP End KM:60000
+</t>
+  </si>
+  <si>
+    <t>Certificate_TC_1</t>
+  </si>
+  <si>
+    <t>Certificate_TC_2</t>
+  </si>
+  <si>
+    <t>Certificate_TC_3</t>
+  </si>
+  <si>
+    <t>Certificate_TC_4</t>
+  </si>
+  <si>
+    <t>Certificate_TC_5</t>
+  </si>
+  <si>
+    <t>Certificate_TC_6</t>
+  </si>
+  <si>
+    <t>Certificate_TC_7</t>
+  </si>
+  <si>
+    <t>Certificate_TC_8</t>
+  </si>
+  <si>
+    <t>Certificate_TC_9</t>
+  </si>
+  <si>
+    <t>Certificate_TC_10</t>
+  </si>
+  <si>
+    <t>Certificate_TC_11</t>
+  </si>
+  <si>
+    <t>Certificate_TC_12</t>
+  </si>
+  <si>
+    <t>Certificate_TC_13</t>
+  </si>
+  <si>
+    <t>Certificate_TC_14</t>
+  </si>
+  <si>
+    <t>Certificate_TC_15</t>
+  </si>
+  <si>
+    <t>Certificate_TC_16</t>
+  </si>
+  <si>
+    <t>Certificate_TC_17</t>
+  </si>
+  <si>
+    <t>Certificate_TC_18</t>
+  </si>
+  <si>
+    <t>Certificate_TC_19</t>
+  </si>
+  <si>
+    <t>Certificate_TC_20</t>
+  </si>
+  <si>
+    <t>Certificate_TC_21</t>
+  </si>
+  <si>
+    <t>Plan type-max care plus &amp;
+Service Package Plan
+3 Years/30000 Kms</t>
+  </si>
+  <si>
+    <t>Plan type-max care plus &amp;
+Service Package Plan
+4Years/40000 Kms</t>
+  </si>
+  <si>
+    <t>Plan type-max care plus &amp;
+Service Package Plan
+2Years/30000 Kms</t>
+  </si>
+  <si>
+    <t>Plan type-max care &amp; 4 Years/40000 Kms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observing the details for the selected service package number-BSP207102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan type-max care
+Service Package Plan
+2 Years/20000 Kms 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">observing the details for the selected service package number-BSP207089 </t>
+  </si>
+  <si>
+    <t>observing the details for the selected service package number-Service Package Plan
+2 Years/20000 Kms</t>
+  </si>
+  <si>
+    <t>All the details  should be same as per requiremnt</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Certificate_TC_22</t>
+  </si>
+  <si>
+    <t>Certificate_TC_23</t>
+  </si>
+  <si>
+    <t>Certificate_TC_24</t>
+  </si>
+  <si>
+    <t>Lead Dev: Alok Srivastava</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +2540,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2023,13 +2567,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2075,6 +2612,21 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2163,7 +2715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2187,34 +2739,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2229,14 +2766,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2250,6 +2781,43 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2530,10 +3098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,143 +3117,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="27">
+        <v>44182</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="16">
-        <v>44176</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C6" s="20">
-        <v>44176</v>
+      <c r="B6" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C6" s="15">
+        <v>44182</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>26</v>
@@ -2704,188 +3272,202 @@
       <c r="J6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C7" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="B8" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C9" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C10" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C8" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C9" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C11" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C10" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="E11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="2" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C12" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C11" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C13" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C12" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C13" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>48</v>
@@ -2895,1609 +3477,1888 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C14" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C15" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C14" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C15" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="7"/>
       <c r="J15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C16" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="E16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C16" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B17" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C17" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C17" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
       <c r="I17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C18" s="20">
-        <v>44176</v>
+      <c r="A18" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C18" s="15">
+        <v>44182</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2"/>
       <c r="I18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C19" s="20">
-        <v>44176</v>
+      <c r="A19" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C19" s="15">
+        <v>44182</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="2"/>
       <c r="I19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+        <v>62</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C20" s="20">
-        <v>44176</v>
+      <c r="A20" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44182</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="2"/>
       <c r="I20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+        <v>65</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C21" s="20">
-        <v>44176</v>
+      <c r="A21" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C21" s="15">
+        <v>44182</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="2"/>
       <c r="I21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C22" s="20">
-        <v>44176</v>
+      <c r="A22" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C22" s="15">
+        <v>44182</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
       <c r="I22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C23" s="20">
-        <v>44176</v>
+        <v>71</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C23" s="15">
+        <v>44182</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="2"/>
       <c r="I23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C24" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C25" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C26" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C24" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C25" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C26" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="2"/>
       <c r="I26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C27" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C28" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C29" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C27" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C30" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
+      <c r="E30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C28" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C29" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C30" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C31" s="20">
-        <v>44176</v>
+      <c r="M30" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C31" s="15">
+        <v>44182</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+        <v>268</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C32" s="20">
-        <v>44176</v>
+      <c r="M31" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C32" s="15">
+        <v>44182</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6" t="s">
-        <v>114</v>
+        <v>81</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C33" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6" t="s">
-        <v>114</v>
+      <c r="M32" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C33" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C34" s="20">
-        <v>44176</v>
+      <c r="M33" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C34" s="15">
+        <v>44182</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C35" s="20">
-        <v>44176</v>
+      <c r="M34" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C35" s="15">
+        <v>44182</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C36" s="20">
-        <v>44176</v>
+      <c r="M35" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C36" s="15">
+        <v>44182</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>87</v>
+        <v>110</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C37" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
-        <v>202</v>
+      <c r="M36" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C37" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="M37" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C38" s="20">
-        <v>44176</v>
+      <c r="A38" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C38" s="15">
+        <v>44182</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="2"/>
       <c r="I38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C39" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>91</v>
+      <c r="M38" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C39" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>93</v>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C40" s="20">
-        <v>44176</v>
+      <c r="M39" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C40" s="15">
+        <v>44182</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="2"/>
       <c r="I40" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B41" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C41" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>95</v>
+      <c r="M40" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C41" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="21" t="s">
-        <v>98</v>
+        <v>52</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C42" s="20">
-        <v>44176</v>
+      <c r="M41" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C42" s="15">
+        <v>44182</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="7"/>
       <c r="J42" s="5" t="s">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B43" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C43" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>203</v>
+      <c r="M42" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C43" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3" t="s">
-        <v>204</v>
+        <v>52</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C44" s="20">
-        <v>44176</v>
+      <c r="M43" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C44" s="15">
+        <v>44182</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="J44" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C45" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>205</v>
+      <c r="M44" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C45" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3" t="s">
-        <v>206</v>
+        <v>52</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C46" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>126</v>
+      <c r="M45" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C46" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C47" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>125</v>
+      <c r="M46" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C47" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="5" t="s">
-        <v>120</v>
+        <v>52</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C48" s="20">
-        <v>44176</v>
+      <c r="M47" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C48" s="15">
+        <v>44182</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="6"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="5" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C49" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>123</v>
+      <c r="M48" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C49" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="5" t="s">
-        <v>121</v>
+        <v>52</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="M49" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="50" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C50" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>129</v>
+      <c r="A50" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C50" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="21" t="s">
-        <v>130</v>
+        <v>52</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
+      <c r="M50" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="51" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C51" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>129</v>
+      <c r="A51" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C51" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>133</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="21" t="s">
-        <v>130</v>
+      <c r="J51" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
+      <c r="M51" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="52" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B52" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C52" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>129</v>
+      <c r="A52" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C52" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>131</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="21" t="s">
-        <v>130</v>
+      <c r="J52" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
+      <c r="M52" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C53" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>129</v>
+      <c r="A53" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C53" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>134</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="21" t="s">
-        <v>130</v>
+      <c r="J53" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
+      <c r="M53" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="54" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B54" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C54" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>129</v>
+      <c r="A54" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C54" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="21" t="s">
-        <v>130</v>
+      <c r="J54" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
+      <c r="M54" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="55" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C55" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="4" t="s">
-        <v>109</v>
+      <c r="A55" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C55" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-    </row>
-    <row r="56" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C56" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="4" t="s">
-        <v>140</v>
+      <c r="M55" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C56" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-    </row>
-    <row r="57" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B57" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C57" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>208</v>
+      <c r="M56" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C57" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
+      <c r="M57" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B58" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C58" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>210</v>
+      <c r="A58" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C58" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
+      <c r="M58" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="59" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B59" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C59" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>228</v>
+      <c r="A59" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C59" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-    </row>
-    <row r="60" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B60" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C60" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>233</v>
+      <c r="M59" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C60" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="18"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-    </row>
-    <row r="61" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="B61" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C61" s="20">
-        <v>44176</v>
+      <c r="M60" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C61" s="15">
+        <v>44182</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-    </row>
-    <row r="62" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B62" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C62" s="20">
-        <v>44176</v>
+      <c r="M61" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C62" s="15">
+        <v>44182</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="7" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-    </row>
-    <row r="63" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B63" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C63" s="20">
-        <v>44176</v>
+      <c r="M62" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C63" s="15">
+        <v>44182</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>215</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E63" s="5"/>
       <c r="F63" s="5" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="7" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
+      <c r="M63" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B64" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C64" s="20">
-        <v>44176</v>
+      <c r="A64" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C64" s="15">
+        <v>44182</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G64" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="7"/>
+      <c r="I64" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="J64" s="5" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-    </row>
-    <row r="65" spans="1:13" ht="195" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B65" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C65" s="20">
-        <v>44176</v>
+      <c r="M64" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C65" s="15">
+        <v>44182</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="7" t="s">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-    </row>
-    <row r="66" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="B66" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C66" s="20">
-        <v>44176</v>
+      <c r="M65" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C66" s="15">
+        <v>44182</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>225</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F66" s="5"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-    </row>
-    <row r="67" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B67" s="19">
-        <v>13253</v>
-      </c>
-      <c r="C67" s="20">
-        <v>44176</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="21" t="s">
-        <v>242</v>
+      <c r="M66" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C67" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
+      <c r="M67" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C68" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C69" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C70" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C71" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C72" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="14" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4515,10 +5376,1040 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="27">
+        <v>44182</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C6" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C9" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C10" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C11" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C12" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C13" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C14" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C15" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C16" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B17" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C17" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C18" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C19" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C21" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B22" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C22" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C23" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C24" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B25" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C25" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C26" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C27" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C28" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" s="14">
+        <v>13301</v>
+      </c>
+      <c r="C29" s="15">
+        <v>44182</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4532,82 +6423,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="A1" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="A2" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="F3" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="27" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="19">
+        <v>67</v>
+      </c>
+      <c r="C4" s="19">
+        <v>67</v>
+      </c>
+      <c r="D4" s="20">
+        <v>67</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="19">
+        <v>24</v>
+      </c>
+      <c r="C5" s="19">
+        <v>24</v>
+      </c>
+      <c r="D5" s="20">
+        <v>24</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="26">
-        <v>62</v>
-      </c>
-      <c r="C4" s="26">
-        <v>62</v>
-      </c>
-      <c r="D4" s="27">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28">
+      <c r="B6" s="19">
+        <v>91</v>
+      </c>
+      <c r="C6" s="19">
+        <v>91</v>
+      </c>
+      <c r="D6" s="20">
+        <v>91</v>
+      </c>
+      <c r="E6" s="21">
         <v>0</v>
       </c>
-      <c r="F4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="B5" s="26">
-        <v>62</v>
-      </c>
-      <c r="C5" s="26">
-        <v>62</v>
-      </c>
-      <c r="D5" s="27">
-        <v>62</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0</v>
-      </c>
-      <c r="F5" s="29">
+      <c r="F6" s="22">
         <f>SUM(F1:F3)</f>
         <v>0</v>
       </c>
